--- a/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,53</t>
+          <t>-4,8; 3,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 0,55</t>
+          <t>-7,57; 0,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,1</t>
+          <t>-8,74; 1,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 6,36</t>
+          <t>-3,61; 6,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -1,5</t>
+          <t>-10,42; -2,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 3,23</t>
+          <t>-9,43; 2,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,77</t>
+          <t>-3,01; 3,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -2,0</t>
+          <t>-7,77; -1,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; -0,03</t>
+          <t>-7,62; 0,02</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 39,58</t>
+          <t>-36,7; 36,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-59,95; 6,4</t>
+          <t>-58,53; 5,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,95; 24,54</t>
+          <t>-75,46; 14,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 45,72</t>
+          <t>-19,29; 46,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -10,03</t>
+          <t>-56,03; -14,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 24,96</t>
+          <t>-52,47; 18,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 32,73</t>
+          <t>-20,38; 27,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,14; -15,6</t>
+          <t>-50,45; -14,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,39; -0,06</t>
+          <t>-52,49; 0,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,95</t>
+          <t>-4,26; 3,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -1,34</t>
+          <t>-8,74; -1,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -0,9</t>
+          <t>-9,95; -1,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,84</t>
+          <t>-3,78; 5,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -3,28</t>
+          <t>-11,51; -3,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -2,74</t>
+          <t>-11,92; -3,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,9</t>
+          <t>-2,95; 2,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -3,34</t>
+          <t>-8,69; -3,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,19</t>
+          <t>-9,32; -3,03</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 22,77</t>
+          <t>-26,32; 25,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,87; -10,52</t>
+          <t>-52,64; -10,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,5; -7,16</t>
+          <t>-61,98; -6,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 28,09</t>
+          <t>-17,75; 30,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,5; -19,26</t>
+          <t>-53,14; -19,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,38; -14,03</t>
+          <t>-55,33; -15,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 18,88</t>
+          <t>-16,3; 19,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,13; -21,85</t>
+          <t>-48,15; -22,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,0; -20,78</t>
+          <t>-52,28; -19,64</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,97</t>
+          <t>-5,79; 2,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,63; -4,83</t>
+          <t>-12,82; -5,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -2,24</t>
+          <t>-10,21; -1,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 7,61</t>
+          <t>-1,71; 7,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,96; -5,98</t>
+          <t>-13,52; -5,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -1,25</t>
+          <t>-9,48; -1,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,86</t>
+          <t>-2,37; 4,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -6,53</t>
+          <t>-12,24; -6,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -2,99</t>
+          <t>-8,76; -2,88</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 18,97</t>
+          <t>-28,19; 17,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,78; -29,86</t>
+          <t>-62,25; -31,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,41; -12,96</t>
+          <t>-50,25; -10,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 38,65</t>
+          <t>-7,39; 36,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,44; -29,05</t>
+          <t>-55,7; -29,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,91; -5,7</t>
+          <t>-39,82; -7,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 21,0</t>
+          <t>-10,9; 22,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,91; -35,07</t>
+          <t>-57,12; -35,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; -16,2</t>
+          <t>-40,78; -15,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 1,56</t>
+          <t>-7,48; 2,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 0,72</t>
+          <t>-8,33; 0,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -0,44</t>
+          <t>-9,7; 0,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 11,53</t>
+          <t>0,67; 11,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -2,6</t>
+          <t>-12,09; -2,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 0,24</t>
+          <t>-8,21; 0,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,97</t>
+          <t>-1,77; 5,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -2,06</t>
+          <t>-8,31; -1,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -0,78</t>
+          <t>-7,5; -0,73</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 10,16</t>
+          <t>-34,58; 15,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 3,87</t>
+          <t>-39,95; 5,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,19; -2,26</t>
+          <t>-44,59; 0,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,69; 57,82</t>
+          <t>2,66; 55,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,13; -11,92</t>
+          <t>-46,64; -11,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 1,43</t>
+          <t>-31,15; 4,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 27,06</t>
+          <t>-7,6; 29,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,49; -11,2</t>
+          <t>-38,31; -10,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,19; -4,23</t>
+          <t>-33,38; -3,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,35</t>
+          <t>-7,2; 4,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -3,78</t>
+          <t>-14,06; -3,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 1,88</t>
+          <t>-8,08; 2,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 8,08</t>
+          <t>-4,43; 7,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 0,33</t>
+          <t>-11,01; 0,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,81</t>
+          <t>-8,78; 1,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,41</t>
+          <t>-4,13; 4,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -3,18</t>
+          <t>-10,72; -2,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 0,38</t>
+          <t>-7,11; 0,12</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 23,5</t>
+          <t>-30,51; 24,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,75; -20,21</t>
+          <t>-57,62; -20,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 10,05</t>
+          <t>-33,64; 14,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 35,2</t>
+          <t>-15,21; 33,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 1,2</t>
+          <t>-37,86; 3,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 8,54</t>
+          <t>-28,6; 7,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 20,18</t>
+          <t>-15,61; 22,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -14,24</t>
+          <t>-40,85; -12,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 1,85</t>
+          <t>-26,54; 0,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 3,39</t>
+          <t>-7,41; 2,74</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -0,34</t>
+          <t>-9,51; -0,69</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 1,33</t>
+          <t>-7,14; 1,45</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,85; 10,72</t>
+          <t>0,94; 10,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 2,74</t>
+          <t>-6,73; 2,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 27,28</t>
+          <t>-2,18; 27,6</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,08</t>
+          <t>-0,83; 6,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 0,07</t>
+          <t>-6,61; -0,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 20,02</t>
+          <t>-2,68; 18,83</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 18,21</t>
+          <t>-31,2; 14,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -2,8</t>
+          <t>-38,97; -2,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 7,27</t>
+          <t>-30,72; 8,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,48; 44,23</t>
+          <t>2,87; 43,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 11,19</t>
+          <t>-23,25; 10,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 110,21</t>
+          <t>-7,81; 110,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 27,75</t>
+          <t>-3,15; 27,22</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 0,49</t>
+          <t>-26,2; -1,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 85,06</t>
+          <t>-10,72; 84,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,83</t>
+          <t>-3,05; 0,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,41</t>
+          <t>-6,97; -3,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,48</t>
+          <t>-5,13; -1,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,94</t>
+          <t>1,48; 5,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -3,91</t>
+          <t>-7,5; -3,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,11</t>
+          <t>-3,55; 7,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,69</t>
+          <t>-0,15; 2,63</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -4,21</t>
+          <t>-6,94; -4,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,37</t>
+          <t>-3,51; 3,38</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 4,84</t>
+          <t>-17,14; 3,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -21,26</t>
+          <t>-39,25; -21,78</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -9,16</t>
+          <t>-29,13; -9,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,11; 27,76</t>
+          <t>6,07; 26,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-33,12; -18,32</t>
+          <t>-32,09; -16,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 32,17</t>
+          <t>-15,68; 35,97</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 14,05</t>
+          <t>-0,77; 13,76</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -22,0</t>
+          <t>-33,46; -21,85</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 18,04</t>
+          <t>-17,41; 18,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,24</t>
+          <t>-4,53; 3,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 0,4</t>
+          <t>-7,21; 0,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 1,13</t>
+          <t>-8,96; 0,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 6,65</t>
+          <t>-4,43; 6,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,42; -2,0</t>
+          <t>-10,56; -1,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 2,54</t>
+          <t>-9,92; 2,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,28</t>
+          <t>-3,35; 3,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -1,84</t>
+          <t>-7,85; -1,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 0,02</t>
+          <t>-7,95; -0,14</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 36,96</t>
+          <t>-37,12; 33,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 5,08</t>
+          <t>-57,59; 2,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,46; 14,14</t>
+          <t>-74,42; 10,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 46,91</t>
+          <t>-22,54; 41,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,03; -14,49</t>
+          <t>-56,98; -12,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,47; 18,65</t>
+          <t>-54,93; 16,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 27,88</t>
+          <t>-22,03; 24,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,45; -14,01</t>
+          <t>-52,28; -15,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 0,08</t>
+          <t>-52,63; -0,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,16</t>
+          <t>-4,87; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; -1,51</t>
+          <t>-8,48; -1,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -1,03</t>
+          <t>-9,68; -1,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,23</t>
+          <t>-3,81; 5,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,51; -3,51</t>
+          <t>-11,13; -3,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; -3,0</t>
+          <t>-11,92; -2,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,95</t>
+          <t>-2,74; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; -3,38</t>
+          <t>-8,49; -3,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,32; -3,03</t>
+          <t>-9,41; -3,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 25,55</t>
+          <t>-29,14; 21,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,64; -10,3</t>
+          <t>-53,26; -9,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,98; -6,72</t>
+          <t>-60,99; -4,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 30,7</t>
+          <t>-18,1; 32,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,14; -19,34</t>
+          <t>-53,23; -18,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,33; -15,78</t>
+          <t>-55,76; -13,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 19,48</t>
+          <t>-15,57; 19,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,15; -22,18</t>
+          <t>-48,34; -21,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,28; -19,64</t>
+          <t>-52,97; -20,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,88</t>
+          <t>-5,51; 3,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,82; -5,23</t>
+          <t>-12,93; -4,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -1,77</t>
+          <t>-10,23; -2,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 7,23</t>
+          <t>-1,54; 7,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,52; -5,77</t>
+          <t>-13,84; -5,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; -1,32</t>
+          <t>-9,8; -1,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,1</t>
+          <t>-2,52; 3,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -6,42</t>
+          <t>-12,19; -6,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -2,88</t>
+          <t>-9,13; -3,04</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 17,83</t>
+          <t>-27,32; 19,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,25; -31,37</t>
+          <t>-62,59; -31,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,25; -10,03</t>
+          <t>-50,35; -12,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 36,25</t>
+          <t>-6,06; 41,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,7; -29,26</t>
+          <t>-57,59; -28,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -7,27</t>
+          <t>-39,04; -7,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 22,79</t>
+          <t>-11,39; 21,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,12; -35,3</t>
+          <t>-55,55; -34,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,78; -15,58</t>
+          <t>-41,51; -16,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 2,24</t>
+          <t>-6,87; 2,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 0,83</t>
+          <t>-7,84; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,13</t>
+          <t>-9,33; 0,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 11,58</t>
+          <t>0,34; 11,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -2,29</t>
+          <t>-11,94; -2,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 0,74</t>
+          <t>-8,03; 0,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,46</t>
+          <t>-1,99; 5,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,31; -1,9</t>
+          <t>-8,8; -2,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -0,73</t>
+          <t>-7,44; -0,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 15,85</t>
+          <t>-34,03; 12,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 5,41</t>
+          <t>-37,88; 8,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 0,72</t>
+          <t>-46,22; 0,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,66; 55,68</t>
+          <t>1,34; 55,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,64; -11,09</t>
+          <t>-47,41; -13,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 4,27</t>
+          <t>-30,51; 4,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 29,28</t>
+          <t>-8,89; 29,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,31; -10,87</t>
+          <t>-39,3; -10,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,38; -3,92</t>
+          <t>-33,96; -3,59</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 4,46</t>
+          <t>-6,7; 4,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -3,67</t>
+          <t>-13,95; -3,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 2,41</t>
+          <t>-8,29; 1,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 7,76</t>
+          <t>-4,84; 8,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 0,86</t>
+          <t>-11,75; 0,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 1,89</t>
+          <t>-8,48; 1,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,87</t>
+          <t>-3,93; 4,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,72; -2,68</t>
+          <t>-10,92; -2,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 0,12</t>
+          <t>-6,86; 0,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 24,19</t>
+          <t>-27,81; 28,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,62; -20,28</t>
+          <t>-56,86; -18,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 14,17</t>
+          <t>-33,5; 11,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 33,22</t>
+          <t>-15,64; 33,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 3,84</t>
+          <t>-38,43; 2,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 7,82</t>
+          <t>-27,93; 7,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 22,21</t>
+          <t>-14,99; 21,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,85; -12,43</t>
+          <t>-40,9; -13,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 0,53</t>
+          <t>-26,21; 1,22</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 2,74</t>
+          <t>-6,62; 2,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -0,69</t>
+          <t>-9,72; -0,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,45</t>
+          <t>-7,15; 1,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,94; 10,68</t>
+          <t>0,8; 10,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 2,53</t>
+          <t>-6,68; 2,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 27,6</t>
+          <t>-2,02; 27,66</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,02</t>
+          <t>-0,94; 5,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,61; -0,13</t>
+          <t>-6,24; 0,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 18,83</t>
+          <t>-2,5; 17,96</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 14,9</t>
+          <t>-28,47; 15,05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,97; -2,27</t>
+          <t>-41,07; -3,03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 8,28</t>
+          <t>-30,26; 7,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,87; 43,26</t>
+          <t>2,54; 43,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 10,42</t>
+          <t>-22,96; 11,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 110,83</t>
+          <t>-7,14; 120,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 27,22</t>
+          <t>-3,38; 26,03</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,2; -1,12</t>
+          <t>-24,34; 0,7</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 84,84</t>
+          <t>-10,28; 81,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,65</t>
+          <t>-2,9; 0,7</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -3,51</t>
+          <t>-6,8; -3,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -1,55</t>
+          <t>-5,19; -1,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,75</t>
+          <t>1,62; 5,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -3,59</t>
+          <t>-7,56; -3,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,72</t>
+          <t>-3,61; 7,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,63</t>
+          <t>-0,06; 2,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -4,14</t>
+          <t>-6,77; -4,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,38</t>
+          <t>-3,4; 3,59</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 3,97</t>
+          <t>-16,12; 4,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -21,78</t>
+          <t>-38,17; -21,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,13; -9,61</t>
+          <t>-29,54; -9,19</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,07; 26,32</t>
+          <t>6,92; 25,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,09; -16,98</t>
+          <t>-32,3; -17,71</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 35,97</t>
+          <t>-15,76; 37,1</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 13,76</t>
+          <t>-0,34; 13,88</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-33,46; -21,85</t>
+          <t>-33,27; -21,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 18,66</t>
+          <t>-17,12; 18,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,04</t>
+          <t>-4,9; 3,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 0,07</t>
+          <t>-7,46; 0,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 0,75</t>
+          <t>-9,11; 1,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 6,06</t>
+          <t>-4,11; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,56; -1,93</t>
+          <t>-10,49; -1,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 2,27</t>
+          <t>-9,59; 3,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,0</t>
+          <t>-2,75; 3,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -1,72</t>
+          <t>-7,8; -2,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -0,14</t>
+          <t>-8,0; -0,03</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 33,6</t>
+          <t>-38,19; 39,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 2,24</t>
+          <t>-59,95; 6,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,42; 10,66</t>
+          <t>-73,95; 24,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 41,89</t>
+          <t>-21,81; 45,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,98; -12,55</t>
+          <t>-56,54; -10,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,93; 16,01</t>
+          <t>-51,98; 24,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 24,27</t>
+          <t>-19,22; 32,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,28; -15,4</t>
+          <t>-51,14; -15,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,63; -0,04</t>
+          <t>-55,39; -0,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,61</t>
+          <t>-4,18; 2,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; -1,39</t>
+          <t>-8,68; -1,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -1,1</t>
+          <t>-9,85; -0,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,57</t>
+          <t>-4,17; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -3,06</t>
+          <t>-11,38; -3,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; -2,64</t>
+          <t>-11,96; -2,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,92</t>
+          <t>-2,96; 2,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -3,04</t>
+          <t>-8,77; -3,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,41; -3,39</t>
+          <t>-9,18; -3,19</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 21,9</t>
+          <t>-25,7; 22,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,26; -9,87</t>
+          <t>-53,87; -10,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,99; -4,64</t>
+          <t>-63,5; -7,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 32,44</t>
+          <t>-19,54; 28,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,23; -18,18</t>
+          <t>-53,5; -19,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,76; -13,59</t>
+          <t>-56,38; -14,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 19,2</t>
+          <t>-16,64; 18,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,34; -21,24</t>
+          <t>-49,13; -21,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,97; -20,81</t>
+          <t>-52,0; -20,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 3,11</t>
+          <t>-5,62; 2,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -4,94</t>
+          <t>-12,63; -4,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -2,27</t>
+          <t>-10,5; -2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 7,87</t>
+          <t>-1,88; 7,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,84; -5,41</t>
+          <t>-13,96; -5,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,8; -1,59</t>
+          <t>-9,7; -1,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,91</t>
+          <t>-2,3; 3,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -6,49</t>
+          <t>-12,13; -6,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -3,04</t>
+          <t>-9,11; -2,99</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 19,77</t>
+          <t>-27,49; 18,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,59; -31,15</t>
+          <t>-62,78; -29,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,35; -12,64</t>
+          <t>-51,41; -12,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 41,61</t>
+          <t>-7,99; 38,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,59; -28,31</t>
+          <t>-56,44; -29,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,04; -7,35</t>
+          <t>-38,91; -5,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 21,38</t>
+          <t>-10,62; 21,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,55; -34,44</t>
+          <t>-55,91; -35,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,51; -16,0</t>
+          <t>-41,73; -16,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 2,09</t>
+          <t>-7,96; 1,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 1,23</t>
+          <t>-8,09; 0,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 0,36</t>
+          <t>-9,51; -0,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 11,28</t>
+          <t>0,7; 11,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,94; -2,63</t>
+          <t>-11,81; -2,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 0,88</t>
+          <t>-8,42; 0,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,39</t>
+          <t>-2,23; 4,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -2,03</t>
+          <t>-8,53; -2,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -0,67</t>
+          <t>-7,42; -0,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 12,6</t>
+          <t>-37,81; 10,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 8,53</t>
+          <t>-39,33; 3,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 0,35</t>
+          <t>-46,19; -2,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 55,04</t>
+          <t>2,69; 57,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,41; -13,23</t>
+          <t>-46,13; -11,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 4,71</t>
+          <t>-32,33; 1,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 29,11</t>
+          <t>-9,65; 27,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,3; -10,86</t>
+          <t>-38,49; -11,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,96; -3,59</t>
+          <t>-33,19; -4,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 4,99</t>
+          <t>-7,1; 4,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -3,46</t>
+          <t>-13,68; -3,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 1,97</t>
+          <t>-8,27; 1,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 8,01</t>
+          <t>-4,47; 8,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 0,41</t>
+          <t>-11,22; 0,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 1,64</t>
+          <t>-8,04; 1,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 4,59</t>
+          <t>-3,75; 4,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -2,78</t>
+          <t>-11,2; -3,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 0,31</t>
+          <t>-6,96; 0,38</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 28,8</t>
+          <t>-30,03; 23,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,86; -18,82</t>
+          <t>-57,75; -20,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 11,6</t>
+          <t>-34,3; 10,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 33,7</t>
+          <t>-14,79; 35,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 2,01</t>
+          <t>-37,02; 1,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 7,59</t>
+          <t>-26,78; 8,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 21,59</t>
+          <t>-14,47; 20,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,9; -13,08</t>
+          <t>-42,8; -14,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 1,22</t>
+          <t>-25,91; 1,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 2,82</t>
+          <t>-6,77; 3,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -0,72</t>
+          <t>-9,25; -0,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 1,46</t>
+          <t>-7,35; 1,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,8; 10,78</t>
+          <t>0,85; 10,72</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 2,98</t>
+          <t>-6,77; 2,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 27,66</t>
+          <t>-2,17; 27,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 5,87</t>
+          <t>-0,83; 6,08</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,27</t>
+          <t>-6,67; 0,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 17,96</t>
+          <t>-2,6; 20,02</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 15,05</t>
+          <t>-29,44; 18,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-41,07; -3,03</t>
+          <t>-39,82; -2,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 7,74</t>
+          <t>-31,2; 7,27</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,54; 43,65</t>
+          <t>2,48; 44,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 11,98</t>
+          <t>-22,64; 11,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 120,45</t>
+          <t>-8,29; 110,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 26,03</t>
+          <t>-3,14; 27,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 0,7</t>
+          <t>-25,28; 0,49</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 81,52</t>
+          <t>-10,54; 85,06</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,7</t>
+          <t>-2,94; 0,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,8; -3,5</t>
+          <t>-6,95; -3,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -1,39</t>
+          <t>-4,99; -1,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,57</t>
+          <t>1,65; 5,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -3,9</t>
+          <t>-7,73; -3,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,95</t>
+          <t>-3,53; 7,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,66</t>
+          <t>-0,11; 2,69</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -4,13</t>
+          <t>-6,75; -4,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,59</t>
+          <t>-3,44; 3,37</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 4,47</t>
+          <t>-16,69; 4,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-38,17; -21,72</t>
+          <t>-38,7; -21,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,54; -9,19</t>
+          <t>-28,16; -9,16</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,92; 25,92</t>
+          <t>7,11; 27,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-32,3; -17,71</t>
+          <t>-33,12; -18,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 37,1</t>
+          <t>-15,54; 32,17</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 13,88</t>
+          <t>-0,55; 14,05</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -21,92</t>
+          <t>-33,27; -22,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 18,88</t>
+          <t>-17,28; 18,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-4,5</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,1</t>
+          <t>-9,23; 1,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 3,23</t>
+          <t>-9,41; 3,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; -0,03</t>
+          <t>-8,3; -0,38</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-42,7%</t>
+          <t>-45,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,72%</t>
+          <t>-21,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-30,94%</t>
+          <t>-33,29%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,95; 24,54</t>
+          <t>-75,37; 22,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,98; 24,96</t>
+          <t>-51,06; 26,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,39; -0,06</t>
+          <t>-57,49; -3,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-6,94</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,85; -0,9</t>
+          <t>-9,82; -0,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -2,74</t>
+          <t>-14,21; -4,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,19</t>
+          <t>-10,21; -3,67</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-39,46%</t>
+          <t>-37,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-38,46%</t>
+          <t>-46,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-37,43%</t>
+          <t>-41,75%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,5; -7,16</t>
+          <t>-62,23; -2,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,38; -14,03</t>
+          <t>-68,33; -25,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,0; -20,78</t>
+          <t>-57,83; -24,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-6,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-6,09</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,5; -2,24</t>
+          <t>-10,68; -2,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -1,25</t>
+          <t>-9,83; -1,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -2,99</t>
+          <t>-9,31; -3,24</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,74%</t>
+          <t>-36,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,74%</t>
+          <t>-24,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-29,24%</t>
+          <t>-30,28%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,41; -12,96</t>
+          <t>-52,42; -14,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,91; -5,7</t>
+          <t>-39,2; -6,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; -16,2</t>
+          <t>-42,64; -17,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-7,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-6,26</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -0,44</t>
+          <t>-16,41; -1,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 0,24</t>
+          <t>-8,97; -0,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -0,78</t>
+          <t>-12,73; -2,27</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,94%</t>
+          <t>-41,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,57%</t>
+          <t>-18,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-19,03%</t>
+          <t>-30,59%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,19; -2,26</t>
+          <t>-77,29; -10,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 1,43</t>
+          <t>-35,24; -0,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,19; -4,23</t>
+          <t>-57,32; -11,75</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-3,39</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 1,88</t>
+          <t>-8,35; 1,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,81</t>
+          <t>-8,08; 1,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 0,38</t>
+          <t>-7,03; 0,28</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-14,39%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-13,12%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-13,67%</t>
+          <t>-14,14%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 10,05</t>
+          <t>-34,59; 8,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 8,54</t>
+          <t>-27,0; 8,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 1,85</t>
+          <t>-26,37; 1,48</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>19,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>12,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 3,39</t>
+          <t>-8,44; 3,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,25; -0,34</t>
+          <t>-9,74; 2,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 1,33</t>
+          <t>-7,72; 2,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,85; 10,72</t>
+          <t>-5,42; 7,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 2,74</t>
+          <t>-12,52; 0,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 27,28</t>
+          <t>-8,64; 57,23</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,08</t>
+          <t>-5,4; 4,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 0,07</t>
+          <t>-9,58; -0,76</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 20,02</t>
+          <t>-5,98; 42,27</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>-20,9%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>-12,64%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
           <t>-23,35%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-13,79%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>21,75%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-7,49%</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-13,54%</t>
+          <t>-22,77%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>52,8%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 18,21</t>
+          <t>-39,89; 28,32</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,82; -2,8</t>
+          <t>-45,49; 13,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 7,27</t>
+          <t>-36,08; 16,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,48; 44,23</t>
+          <t>-17,76; 30,29</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 11,19</t>
+          <t>-39,97; 1,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 110,21</t>
+          <t>-29,8; 243,48</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 27,75</t>
+          <t>-20,95; 19,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,28; 0,49</t>
+          <t>-38,2; -3,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 85,06</t>
+          <t>-24,81; 191,81</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,83</t>
+          <t>-10,18; 5,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,41</t>
+          <t>-14,09; 0,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,48</t>
+          <t>-11,05; 1,73</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,94</t>
+          <t>3,23; 17,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -3,91</t>
+          <t>-4,46; 10,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,11</t>
+          <t>-1,56; 9,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,69</t>
+          <t>-0,16; 10,67</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -4,21</t>
+          <t>-6,2; 4,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,37</t>
+          <t>-3,21; 5,9</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-31,21%</t>
+          <t>-26,48%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-19,6%</t>
+          <t>-17,08%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-25,66%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-27,94%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-8,82%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-35,05; 25,95</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-46,97; 2,16</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-36,7; 8,94</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 79,83</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 47,19</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 43,24</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 47,43</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-22,05; 18,78</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-11,43; 26,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-4,35</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-5,74</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-5,5</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 0,83</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; -3,41</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; -2,51</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 5,94</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; -3,91</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 15,08</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 2,69</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; -4,21</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 6,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-6,79%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-31,21%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-25,71%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-25,66%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-27,94%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-7,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-16,69; 4,84</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-38,7; -21,26</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-28,16; -9,16</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-40,3; -15,37</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>7,11; 27,76</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-33,12; -18,32</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-15,54; 32,17</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 67,44</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-0,55; 14,05</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-33,27; -22,0</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-17,28; 18,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-22,39; 35,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,53</t>
+          <t>-4,81; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 0,55</t>
+          <t>-6,88; 0,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 1,0</t>
+          <t>-9,17; 0,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 6,36</t>
+          <t>-3,83; 6,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,49; -1,5</t>
+          <t>-10,35; -2,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 3,51</t>
+          <t>-8,86; 3,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,77</t>
+          <t>-2,86; 3,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -2,0</t>
+          <t>-7,87; -1,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -0,38</t>
+          <t>-8,3; -0,44</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 39,58</t>
+          <t>-37,69; 38,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-59,95; 6,4</t>
+          <t>-55,36; 11,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,37; 22,37</t>
+          <t>-74,92; 14,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 45,72</t>
+          <t>-21,28; 42,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -10,03</t>
+          <t>-55,88; -13,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 26,98</t>
+          <t>-49,11; 29,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 32,73</t>
+          <t>-18,93; 28,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,14; -15,6</t>
+          <t>-52,16; -15,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,49; -3,21</t>
+          <t>-55,95; -2,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,95</t>
+          <t>-3,94; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -1,34</t>
+          <t>-8,82; -1,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; -0,36</t>
+          <t>-9,69; -0,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,84</t>
+          <t>-3,71; 5,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -3,28</t>
+          <t>-11,37; -3,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -4,32</t>
+          <t>-14,33; -4,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,9</t>
+          <t>-2,72; 3,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -3,34</t>
+          <t>-8,63; -3,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,21; -3,67</t>
+          <t>-10,25; -3,82</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 22,77</t>
+          <t>-25,52; 26,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,87; -10,52</t>
+          <t>-54,26; -11,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,23; -2,49</t>
+          <t>-61,96; -0,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 28,09</t>
+          <t>-17,28; 31,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,5; -19,26</t>
+          <t>-52,81; -18,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,33; -25,9</t>
+          <t>-67,88; -27,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 18,88</t>
+          <t>-15,22; 20,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,13; -21,85</t>
+          <t>-48,27; -21,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,83; -24,29</t>
+          <t>-58,53; -24,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,97</t>
+          <t>-5,21; 3,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,63; -4,83</t>
+          <t>-12,51; -4,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -2,52</t>
+          <t>-10,57; -2,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 7,61</t>
+          <t>-1,69; 7,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,96; -5,98</t>
+          <t>-13,49; -5,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -1,32</t>
+          <t>-9,46; -1,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,86</t>
+          <t>-2,42; 3,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -6,53</t>
+          <t>-12,15; -6,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -3,24</t>
+          <t>-8,89; -3,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 18,97</t>
+          <t>-26,29; 23,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,78; -29,86</t>
+          <t>-60,59; -29,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,42; -14,34</t>
+          <t>-53,3; -14,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 38,65</t>
+          <t>-6,61; 37,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,44; -29,05</t>
+          <t>-56,46; -28,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,2; -6,16</t>
+          <t>-39,0; -8,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 21,0</t>
+          <t>-11,42; 20,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,91; -35,07</t>
+          <t>-55,79; -36,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-42,64; -17,3</t>
+          <t>-40,88; -17,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 1,56</t>
+          <t>-7,56; 1,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 0,72</t>
+          <t>-8,18; 1,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,41; -1,89</t>
+          <t>-15,87; -1,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 11,53</t>
+          <t>0,86; 11,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,81; -2,6</t>
+          <t>-11,94; -2,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,97; -0,04</t>
+          <t>-8,97; -0,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 4,97</t>
+          <t>-1,66; 5,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,53; -2,06</t>
+          <t>-8,61; -2,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -2,27</t>
+          <t>-13,16; -2,56</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 10,16</t>
+          <t>-36,1; 12,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 3,87</t>
+          <t>-39,47; 7,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-77,29; -10,61</t>
+          <t>-75,97; -9,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,69; 57,82</t>
+          <t>2,98; 56,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-46,13; -11,92</t>
+          <t>-46,53; -10,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,24; -0,56</t>
+          <t>-34,9; -1,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 27,06</t>
+          <t>-7,92; 28,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,49; -11,2</t>
+          <t>-39,37; -11,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,32; -11,75</t>
+          <t>-61,04; -13,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,35</t>
+          <t>-7,1; 4,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -3,78</t>
+          <t>-13,68; -2,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 1,6</t>
+          <t>-8,78; 1,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 8,08</t>
+          <t>-4,98; 7,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 0,33</t>
+          <t>-11,57; 0,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 1,77</t>
+          <t>-8,86; 1,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,41</t>
+          <t>-4,0; 4,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -3,18</t>
+          <t>-10,97; -2,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,28</t>
+          <t>-6,79; 0,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 23,5</t>
+          <t>-29,83; 25,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,75; -20,21</t>
+          <t>-55,04; -14,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 8,57</t>
+          <t>-34,76; 8,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 35,2</t>
+          <t>-16,54; 32,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 1,2</t>
+          <t>-37,29; 0,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 8,32</t>
+          <t>-29,19; 7,41</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 20,18</t>
+          <t>-15,19; 20,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -14,24</t>
+          <t>-42,44; -12,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 1,48</t>
+          <t>-26,21; 0,43</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 3,95</t>
+          <t>-8,28; 4,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 2,01</t>
+          <t>-9,38; 2,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 2,44</t>
+          <t>-7,81; 3,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 7,27</t>
+          <t>-6,39; 7,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 0,2</t>
+          <t>-12,62; 0,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 57,23</t>
+          <t>-9,05; 50,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,07</t>
+          <t>-5,28; 4,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,58; -0,76</t>
+          <t>-9,57; -1,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 42,27</t>
+          <t>-6,08; 47,1</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 28,32</t>
+          <t>-40,38; 30,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 13,68</t>
+          <t>-45,32; 18,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 16,73</t>
+          <t>-36,54; 21,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 30,29</t>
+          <t>-20,01; 29,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 1,12</t>
+          <t>-40,6; 0,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 243,48</t>
+          <t>-31,03; 199,57</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 19,39</t>
+          <t>-20,02; 19,38</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-38,2; -3,61</t>
+          <t>-37,58; -5,35</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 191,81</t>
+          <t>-25,95; 213,08</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 5,44</t>
+          <t>-10,22; 5,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 0,36</t>
+          <t>-13,99; 0,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 1,73</t>
+          <t>-11,27; 2,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,23; 17,38</t>
+          <t>3,26; 17,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 10,07</t>
+          <t>-4,94; 9,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 9,32</t>
+          <t>-2,0; 9,59</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 10,67</t>
+          <t>-0,05; 10,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 4,15</t>
+          <t>-6,62; 4,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 5,9</t>
+          <t>-3,77; 5,36</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 25,95</t>
+          <t>-35,34; 28,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 2,16</t>
+          <t>-47,12; 3,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 8,94</t>
+          <t>-37,53; 11,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>10,67; 79,83</t>
+          <t>10,91; 82,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 47,19</t>
+          <t>-17,47; 42,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 43,24</t>
+          <t>-6,06; 46,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 47,43</t>
+          <t>-0,28; 47,29</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 18,78</t>
+          <t>-23,15; 18,88</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 26,1</t>
+          <t>-13,14; 24,1</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,83</t>
+          <t>-3,11; 0,61</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,41</t>
+          <t>-7,14; -3,5</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -2,51</t>
+          <t>-7,28; -2,44</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,94</t>
+          <t>1,42; 5,88</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -3,91</t>
+          <t>-7,71; -3,86</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 15,08</t>
+          <t>-3,87; 15,33</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,69</t>
+          <t>-0,08; 2,63</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -4,21</t>
+          <t>-6,77; -4,24</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,71</t>
+          <t>-4,67; 6,37</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 4,84</t>
+          <t>-17,0; 3,99</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -21,26</t>
+          <t>-40,02; -21,84</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -15,37</t>
+          <t>-42,48; -15,11</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>7,11; 27,76</t>
+          <t>5,97; 27,48</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-33,12; -18,32</t>
+          <t>-32,82; -18,08</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 67,44</t>
+          <t>-17,18; 68,27</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 14,05</t>
+          <t>-0,34; 13,74</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -22,0</t>
+          <t>-33,16; -22,08</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 35,91</t>
+          <t>-23,43; 32,19</t>
         </is>
       </c>
     </row>
